--- a/pred_ohlcv/54_23/2020-01-11 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2020-01-11 MTL ohlcv.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>open</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>OBV</t>
   </si>
   <si>
     <t>trade_state</t>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F324"/>
+  <dimension ref="A1:G324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -426,10 +432,13 @@
         <v>248.2</v>
       </c>
       <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>652.5984</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -446,10 +455,13 @@
         <v>248.1</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>345</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -466,10 +478,13 @@
         <v>248.1</v>
       </c>
       <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>1027.1744</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -486,10 +501,13 @@
         <v>248.1</v>
       </c>
       <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>4447.5126</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -506,10 +524,13 @@
         <v>248.1</v>
       </c>
       <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>2801.4214</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -526,10 +547,13 @@
         <v>248</v>
       </c>
       <c r="F7">
+        <v>863.8792999999999</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -546,10 +570,13 @@
         <v>248</v>
       </c>
       <c r="F8">
+        <v>15.8944</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -566,10 +593,13 @@
         <v>247.8</v>
       </c>
       <c r="F9">
+        <v>1244.794</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -586,10 +616,13 @@
         <v>247.8</v>
       </c>
       <c r="F10">
+        <v>51.9746</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -606,10 +639,13 @@
         <v>247.8</v>
       </c>
       <c r="F11">
+        <v>8.224299999999999</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -626,10 +662,13 @@
         <v>247.9</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>49.8665</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -646,10 +685,13 @@
         <v>249.9</v>
       </c>
       <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>2229.3593</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -666,10 +708,13 @@
         <v>249.9</v>
       </c>
       <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>3387.9998</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -686,10 +731,13 @@
         <v>250</v>
       </c>
       <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>210.65</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -706,10 +754,13 @@
         <v>250</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>7607</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -726,10 +777,13 @@
         <v>251.6</v>
       </c>
       <c r="F17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -746,10 +800,13 @@
         <v>251.5</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -766,10 +823,13 @@
         <v>251</v>
       </c>
       <c r="F19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>13821.68908504</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -786,10 +846,13 @@
         <v>251</v>
       </c>
       <c r="F20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>622.346</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -808,8 +871,11 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -826,10 +892,13 @@
         <v>251</v>
       </c>
       <c r="F22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>188.9999</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -846,10 +915,13 @@
         <v>251</v>
       </c>
       <c r="F23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>361.4027</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -866,10 +938,13 @@
         <v>251</v>
       </c>
       <c r="F24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>509</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -886,10 +961,13 @@
         <v>251</v>
       </c>
       <c r="F25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -906,10 +984,13 @@
         <v>253</v>
       </c>
       <c r="F26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -926,10 +1007,13 @@
         <v>251</v>
       </c>
       <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>102.8306</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -946,10 +1030,13 @@
         <v>252.8</v>
       </c>
       <c r="F28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>26</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -966,10 +1053,13 @@
         <v>252</v>
       </c>
       <c r="F29">
+        <v>618.9999</v>
+      </c>
+      <c r="G29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -986,10 +1076,13 @@
         <v>252</v>
       </c>
       <c r="F30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>337.9</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1006,10 +1099,13 @@
         <v>252</v>
       </c>
       <c r="F31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>357.5818</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1026,10 +1122,13 @@
         <v>253.2</v>
       </c>
       <c r="F32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1046,10 +1145,13 @@
         <v>252</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>19.847</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1066,10 +1168,13 @@
         <v>252</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>386.0181</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1086,10 +1191,13 @@
         <v>250.2</v>
       </c>
       <c r="F35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>40.9477</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1106,10 +1214,13 @@
         <v>250.3</v>
       </c>
       <c r="F36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>42.0733</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1126,10 +1237,13 @@
         <v>250.4</v>
       </c>
       <c r="F37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>21.6613</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1146,10 +1260,13 @@
         <v>250.7</v>
       </c>
       <c r="F38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>21.3073</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1166,10 +1283,13 @@
         <v>250.8</v>
       </c>
       <c r="F39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>3.6101</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1186,10 +1306,13 @@
         <v>250.8</v>
       </c>
       <c r="F40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>15.6729</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1206,10 +1329,13 @@
         <v>250.7</v>
       </c>
       <c r="F41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>701.5655</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1226,10 +1352,13 @@
         <v>251.3</v>
       </c>
       <c r="F42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>15.6584</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1246,10 +1375,13 @@
         <v>251.1</v>
       </c>
       <c r="F43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>112.3895</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1266,10 +1398,13 @@
         <v>251.2</v>
       </c>
       <c r="F44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1286,10 +1421,13 @@
         <v>251.2</v>
       </c>
       <c r="F45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>122.9507</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1306,10 +1444,13 @@
         <v>251.2</v>
       </c>
       <c r="F46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>109.3581</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1326,10 +1467,13 @@
         <v>251.3</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>19.4611</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1346,10 +1490,13 @@
         <v>251.2</v>
       </c>
       <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1366,10 +1513,13 @@
         <v>251.2</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>93.3558</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1386,10 +1536,13 @@
         <v>251</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>33.4364</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1406,10 +1559,13 @@
         <v>251</v>
       </c>
       <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>22.9094</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1426,10 +1582,13 @@
         <v>251</v>
       </c>
       <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>34.0523</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1446,10 +1605,13 @@
         <v>251</v>
       </c>
       <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>25.405</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1466,10 +1628,13 @@
         <v>251</v>
       </c>
       <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>24.3539</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1486,10 +1651,13 @@
         <v>250.1</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>12.431</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1506,10 +1674,13 @@
         <v>250</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>18.6088</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1526,10 +1697,13 @@
         <v>250</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>11.3149</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1546,10 +1720,13 @@
         <v>250</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>23.4529</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1566,10 +1743,13 @@
         <v>250</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>62.4405</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1586,10 +1766,13 @@
         <v>251</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>257.0771</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1606,10 +1789,13 @@
         <v>249.9</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>6438</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1626,10 +1812,13 @@
         <v>249.9</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>2898.3099</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1646,10 +1835,13 @@
         <v>249.9</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>14122.9347</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1666,10 +1858,13 @@
         <v>249.9</v>
       </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>3321.8733</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1686,10 +1881,13 @@
         <v>249.9</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>5626.7454</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1706,10 +1904,13 @@
         <v>249.8</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>8132.5439</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1726,10 +1927,13 @@
         <v>249.8</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>511.9999</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1746,10 +1950,13 @@
         <v>249.8</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>389.6325</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1766,10 +1973,13 @@
         <v>248.1</v>
       </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>1007.2052</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1786,10 +1996,13 @@
         <v>249.9</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>165.3525</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1806,10 +2019,13 @@
         <v>250.1</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>19.5935</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1826,10 +2042,13 @@
         <v>249.1</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>162.94</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1846,10 +2065,13 @@
         <v>250.1</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>3354.76237031</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1866,10 +2088,13 @@
         <v>248.7</v>
       </c>
       <c r="F74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>9983.104600000001</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1886,10 +2111,13 @@
         <v>248.7</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>6266.4698</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1906,10 +2134,13 @@
         <v>248.7</v>
       </c>
       <c r="F76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>1488.8207</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1926,10 +2157,13 @@
         <v>248.7</v>
       </c>
       <c r="F77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>278.7036</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1946,10 +2180,13 @@
         <v>248.7</v>
       </c>
       <c r="F78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>243.0729</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1966,10 +2203,13 @@
         <v>248.7</v>
       </c>
       <c r="F79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>124.1272</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1986,10 +2226,13 @@
         <v>248.7</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2006,10 +2249,13 @@
         <v>248.7</v>
       </c>
       <c r="F81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2026,10 +2272,13 @@
         <v>248.7</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2046,10 +2295,13 @@
         <v>250.7</v>
       </c>
       <c r="F83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2066,10 +2318,13 @@
         <v>250.7</v>
       </c>
       <c r="F84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2086,10 +2341,13 @@
         <v>250.6</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2106,10 +2364,13 @@
         <v>250</v>
       </c>
       <c r="F86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2126,10 +2387,13 @@
         <v>250</v>
       </c>
       <c r="F87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2146,10 +2410,13 @@
         <v>250</v>
       </c>
       <c r="F88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>12</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2166,10 +2433,13 @@
         <v>251.3</v>
       </c>
       <c r="F89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2186,10 +2456,13 @@
         <v>249</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>42.16</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2206,10 +2479,13 @@
         <v>249</v>
       </c>
       <c r="F91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>32.5785</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2226,10 +2502,13 @@
         <v>249</v>
       </c>
       <c r="F92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>2.063</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2246,10 +2525,13 @@
         <v>249</v>
       </c>
       <c r="F93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>8.1532</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2266,10 +2548,13 @@
         <v>250</v>
       </c>
       <c r="F94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>15.6485</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2286,10 +2571,13 @@
         <v>250</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>3.3156</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2306,10 +2594,13 @@
         <v>250</v>
       </c>
       <c r="F96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>5.9132</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2326,10 +2617,13 @@
         <v>251.8</v>
       </c>
       <c r="F97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2346,10 +2640,13 @@
         <v>250</v>
       </c>
       <c r="F98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>4.6362</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2366,10 +2663,13 @@
         <v>249</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2386,10 +2686,13 @@
         <v>248.5</v>
       </c>
       <c r="F100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>5168.2026</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2406,10 +2709,13 @@
         <v>248.7</v>
       </c>
       <c r="F101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>14.8241</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2426,10 +2732,13 @@
         <v>249</v>
       </c>
       <c r="F102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>19.3286</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2446,10 +2755,13 @@
         <v>248.7</v>
       </c>
       <c r="F103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>4.3605</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2466,10 +2778,13 @@
         <v>249</v>
       </c>
       <c r="F104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>1018.255</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2486,10 +2801,13 @@
         <v>248.4</v>
       </c>
       <c r="F105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>2414.0084</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2506,10 +2824,13 @@
         <v>249.4</v>
       </c>
       <c r="F106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>19.1861</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2526,10 +2847,13 @@
         <v>250.8</v>
       </c>
       <c r="F107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>124.5976</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2546,10 +2870,13 @@
         <v>249.9</v>
       </c>
       <c r="F108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>25.1226</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2566,10 +2893,13 @@
         <v>249.9</v>
       </c>
       <c r="F109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>23.1569</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2586,10 +2916,13 @@
         <v>249.9</v>
       </c>
       <c r="F110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>9.25</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2606,10 +2939,13 @@
         <v>249.9</v>
       </c>
       <c r="F111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>9.3467</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2626,10 +2962,13 @@
         <v>249.9</v>
       </c>
       <c r="F112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2646,10 +2985,13 @@
         <v>250.8</v>
       </c>
       <c r="F113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2666,10 +3008,13 @@
         <v>250.8</v>
       </c>
       <c r="F114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2686,10 +3031,13 @@
         <v>250.8</v>
       </c>
       <c r="F115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2706,10 +3054,13 @@
         <v>249.3</v>
       </c>
       <c r="F116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>63.2706</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2726,10 +3077,13 @@
         <v>250.4</v>
       </c>
       <c r="F117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>15.1873</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2746,10 +3100,13 @@
         <v>250.4</v>
       </c>
       <c r="F118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>18.3551</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2766,10 +3123,13 @@
         <v>250.4</v>
       </c>
       <c r="F119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>18.4584</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2786,10 +3146,13 @@
         <v>250.4</v>
       </c>
       <c r="F120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>22.8116</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2806,10 +3169,13 @@
         <v>250.4</v>
       </c>
       <c r="F121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>68.435</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2826,10 +3192,13 @@
         <v>251.5</v>
       </c>
       <c r="F122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>39.6535</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2846,10 +3215,13 @@
         <v>250.4</v>
       </c>
       <c r="F123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>550</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2866,10 +3238,13 @@
         <v>251.5</v>
       </c>
       <c r="F124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>2624.9776</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2886,10 +3261,13 @@
         <v>250.6</v>
       </c>
       <c r="F125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>753.0001</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2906,10 +3284,13 @@
         <v>250.4</v>
       </c>
       <c r="F126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>244.6584</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -2926,10 +3307,13 @@
         <v>250.6</v>
       </c>
       <c r="F127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -2946,10 +3330,13 @@
         <v>250.6</v>
       </c>
       <c r="F128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>890.1155</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -2966,10 +3353,13 @@
         <v>250.6</v>
       </c>
       <c r="F129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>162</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -2986,10 +3376,13 @@
         <v>250.6</v>
       </c>
       <c r="F130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>126</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3006,10 +3399,13 @@
         <v>250.6</v>
       </c>
       <c r="F131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>378.44</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3026,10 +3422,13 @@
         <v>250.6</v>
       </c>
       <c r="F132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>21.207</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3046,10 +3445,13 @@
         <v>250.4</v>
       </c>
       <c r="F133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>329.4808</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3066,10 +3468,13 @@
         <v>250.4</v>
       </c>
       <c r="F134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>161.9999</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3086,10 +3491,13 @@
         <v>250.4</v>
       </c>
       <c r="F135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>124</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3106,10 +3514,13 @@
         <v>250.6</v>
       </c>
       <c r="F136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
+        <v>261.2629</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -3126,10 +3537,13 @@
         <v>250.6</v>
       </c>
       <c r="F137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>493</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -3146,10 +3560,13 @@
         <v>250.6</v>
       </c>
       <c r="F138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
+        <v>182</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -3166,10 +3583,13 @@
         <v>250.6</v>
       </c>
       <c r="F139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>122.5006</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -3186,10 +3606,13 @@
         <v>250.4</v>
       </c>
       <c r="F140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>144.9999</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -3206,10 +3629,13 @@
         <v>250.4</v>
       </c>
       <c r="F141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>525</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -3226,10 +3652,13 @@
         <v>250.4</v>
       </c>
       <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>913.3943</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -3246,10 +3675,13 @@
         <v>250.5</v>
       </c>
       <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>3173.07665689</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -3266,10 +3698,13 @@
         <v>251.6</v>
       </c>
       <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>4.2886</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -3286,10 +3721,13 @@
         <v>248.1</v>
       </c>
       <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>41265.2805</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -3306,10 +3744,13 @@
         <v>249.1</v>
       </c>
       <c r="F146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>792</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -3326,10 +3767,13 @@
         <v>248</v>
       </c>
       <c r="F147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>2024.8</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -3346,10 +3790,13 @@
         <v>248</v>
       </c>
       <c r="F148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
+        <v>1800</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -3366,10 +3813,13 @@
         <v>248</v>
       </c>
       <c r="F149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
+        <v>2.2</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -3386,10 +3836,13 @@
         <v>249</v>
       </c>
       <c r="F150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>6066.4904</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -3406,10 +3859,13 @@
         <v>249.8</v>
       </c>
       <c r="F151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -3426,10 +3882,13 @@
         <v>249.8</v>
       </c>
       <c r="F152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -3446,10 +3905,13 @@
         <v>249.3</v>
       </c>
       <c r="F153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>95.9472</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -3466,10 +3928,13 @@
         <v>250</v>
       </c>
       <c r="F154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>3990.025</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -3486,10 +3951,13 @@
         <v>249.1</v>
       </c>
       <c r="F155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>2371.6</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -3506,10 +3974,13 @@
         <v>249</v>
       </c>
       <c r="F156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -3526,10 +3997,13 @@
         <v>250</v>
       </c>
       <c r="F157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>4141.3401</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -3546,10 +4020,13 @@
         <v>248.3</v>
       </c>
       <c r="F158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>11663.1457</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -3566,10 +4043,13 @@
         <v>248.2</v>
       </c>
       <c r="F159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>3977.9232</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -3586,10 +4066,13 @@
         <v>249.4</v>
       </c>
       <c r="F160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>1291.2843</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -3606,10 +4089,13 @@
         <v>248.2</v>
       </c>
       <c r="F161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>567</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -3626,10 +4112,13 @@
         <v>248.2</v>
       </c>
       <c r="F162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>387.6096</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -3646,10 +4135,13 @@
         <v>249.1</v>
       </c>
       <c r="F163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>168.3</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -3666,10 +4158,13 @@
         <v>249.1</v>
       </c>
       <c r="F164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
+        <v>2092.0184</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -3686,10 +4181,13 @@
         <v>249.1</v>
       </c>
       <c r="F165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
+        <v>95.9472</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -3706,10 +4204,13 @@
         <v>249.1</v>
       </c>
       <c r="F166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>33</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -3726,10 +4227,13 @@
         <v>249.1</v>
       </c>
       <c r="F167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>123.3913</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -3746,10 +4250,13 @@
         <v>249.4</v>
       </c>
       <c r="F168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>1346</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -3766,10 +4273,13 @@
         <v>249.4</v>
       </c>
       <c r="F169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
+        <v>3749.6058</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -3786,10 +4296,13 @@
         <v>249.5</v>
       </c>
       <c r="F170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>2615.9599</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -3806,10 +4319,13 @@
         <v>249.9</v>
       </c>
       <c r="F171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>1816.65003732</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -3826,10 +4342,13 @@
         <v>250.6</v>
       </c>
       <c r="F172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>5453.15186154</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -3846,10 +4365,13 @@
         <v>250.7</v>
       </c>
       <c r="F173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
+        <v>1388.6445</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -3866,10 +4388,13 @@
         <v>249.5</v>
       </c>
       <c r="F174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>152</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -3886,10 +4411,13 @@
         <v>249.5</v>
       </c>
       <c r="F175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
+        <v>664.4487</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -3906,10 +4434,13 @@
         <v>249.4</v>
       </c>
       <c r="F176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
+        <v>4840</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -3926,10 +4457,13 @@
         <v>249.4</v>
       </c>
       <c r="F177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>172</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -3946,10 +4480,13 @@
         <v>250.6</v>
       </c>
       <c r="F178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>7887.74471479</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -3966,10 +4503,13 @@
         <v>249.4</v>
       </c>
       <c r="F179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>176</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -3986,10 +4526,13 @@
         <v>249.5</v>
       </c>
       <c r="F180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>1202</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4006,10 +4549,13 @@
         <v>249.5</v>
       </c>
       <c r="F181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
+        <v>132</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4026,10 +4572,13 @@
         <v>250</v>
       </c>
       <c r="F182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
+        <v>2712.1</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4046,10 +4595,13 @@
         <v>250</v>
       </c>
       <c r="F183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
+        <v>1159.3243</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4066,10 +4618,13 @@
         <v>250</v>
       </c>
       <c r="F184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>824.0212</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4086,10 +4641,13 @@
         <v>250</v>
       </c>
       <c r="F185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>6298.8789</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4106,10 +4664,13 @@
         <v>249.5</v>
       </c>
       <c r="F186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>68.4512</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4126,10 +4687,13 @@
         <v>249.5</v>
       </c>
       <c r="F187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>132</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4146,10 +4710,13 @@
         <v>249.5</v>
       </c>
       <c r="F188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>3330.9999</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4166,10 +4733,13 @@
         <v>249.6</v>
       </c>
       <c r="F189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>165.6836</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4186,10 +4756,13 @@
         <v>249.5</v>
       </c>
       <c r="F190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>3515.5612</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4206,10 +4779,13 @@
         <v>249.5</v>
       </c>
       <c r="F191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>816.7676</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4226,10 +4802,13 @@
         <v>249.5</v>
       </c>
       <c r="F192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
+        <v>241.9999</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4246,10 +4825,13 @@
         <v>249.5</v>
       </c>
       <c r="F193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>799</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4266,10 +4848,13 @@
         <v>250.6</v>
       </c>
       <c r="F194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>1270</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4286,10 +4871,13 @@
         <v>249.5</v>
       </c>
       <c r="F195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>6257.9715</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4306,10 +4894,13 @@
         <v>251.2</v>
       </c>
       <c r="F196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6">
+        <v>1475</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4326,10 +4917,13 @@
         <v>251.2</v>
       </c>
       <c r="F197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6">
+        <v>3065.3086</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4346,10 +4940,13 @@
         <v>249.6</v>
       </c>
       <c r="F198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4366,10 +4963,13 @@
         <v>250</v>
       </c>
       <c r="F199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>2592.4253</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4386,10 +4986,13 @@
         <v>250</v>
       </c>
       <c r="F200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4406,10 +5009,13 @@
         <v>250</v>
       </c>
       <c r="F201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6">
+        <v>277.7428</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4426,10 +5032,13 @@
         <v>250</v>
       </c>
       <c r="F202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6">
+        <v>1538.9224</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4446,10 +5055,13 @@
         <v>250</v>
       </c>
       <c r="F203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6">
+        <v>2574.9594</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4466,10 +5078,13 @@
         <v>249</v>
       </c>
       <c r="F204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6">
+        <v>1037.1095</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4486,10 +5101,13 @@
         <v>249</v>
       </c>
       <c r="F205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6">
+        <v>1250</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4506,10 +5124,13 @@
         <v>249</v>
       </c>
       <c r="F206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6">
+        <v>2292.8148</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4526,10 +5147,13 @@
         <v>248.6</v>
       </c>
       <c r="F207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6">
+        <v>900</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -4546,10 +5170,13 @@
         <v>251</v>
       </c>
       <c r="F208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6">
+        <v>100.5081</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -4566,10 +5193,13 @@
         <v>248.7</v>
       </c>
       <c r="F209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6">
+        <v>2729.1668</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -4586,10 +5216,13 @@
         <v>248.7</v>
       </c>
       <c r="F210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6">
+        <v>1489.1526</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -4606,10 +5239,13 @@
         <v>250.6</v>
       </c>
       <c r="F211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6">
+        <v>575.0386</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -4626,10 +5262,13 @@
         <v>249.7</v>
       </c>
       <c r="F212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6">
+        <v>1661.5042</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -4646,10 +5285,13 @@
         <v>250.4</v>
       </c>
       <c r="F213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6">
+        <v>1470.5209</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -4666,10 +5308,13 @@
         <v>248.7</v>
       </c>
       <c r="F214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6">
+        <v>1470.5209</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -4686,10 +5331,13 @@
         <v>249.7</v>
       </c>
       <c r="F215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6">
+        <v>1022.1119</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -4706,10 +5354,13 @@
         <v>249.7</v>
       </c>
       <c r="F216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6">
+        <v>762.3881</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -4726,10 +5377,13 @@
         <v>249.7</v>
       </c>
       <c r="F217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6">
+        <v>15223.5</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -4746,10 +5400,13 @@
         <v>251.5</v>
       </c>
       <c r="F218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6">
+        <v>7542.0964</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -4766,10 +5423,13 @@
         <v>249.4</v>
       </c>
       <c r="F219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6">
+        <v>3757.5655</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -4786,10 +5446,13 @@
         <v>248.7</v>
       </c>
       <c r="F220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6">
+        <v>3488.1134</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -4806,10 +5469,13 @@
         <v>250.5</v>
       </c>
       <c r="F221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6">
+        <v>3.3769</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -4826,10 +5492,13 @@
         <v>249.5</v>
       </c>
       <c r="F222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6">
+        <v>105.6</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -4846,10 +5515,13 @@
         <v>248.6</v>
       </c>
       <c r="F223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6">
+        <v>5323.793</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -4866,10 +5538,13 @@
         <v>250.4</v>
       </c>
       <c r="F224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6">
+        <v>471.7199</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -4886,10 +5561,13 @@
         <v>250.4</v>
       </c>
       <c r="F225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6">
+        <v>1.9969</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -4906,10 +5584,13 @@
         <v>249.7</v>
       </c>
       <c r="F226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6">
+        <v>184.9999</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -4926,10 +5607,13 @@
         <v>248.3</v>
       </c>
       <c r="F227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6">
+        <v>9225.027099999999</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -4946,10 +5630,13 @@
         <v>250.1</v>
       </c>
       <c r="F228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -4966,10 +5653,13 @@
         <v>250.1</v>
       </c>
       <c r="F229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6">
+        <v>78</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -4986,10 +5676,13 @@
         <v>249.3</v>
       </c>
       <c r="F230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5006,10 +5699,13 @@
         <v>249.3</v>
       </c>
       <c r="F231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5026,10 +5722,13 @@
         <v>249.3</v>
       </c>
       <c r="F232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5046,10 +5745,13 @@
         <v>250.1</v>
       </c>
       <c r="F233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6">
+        <v>2733.1741</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5066,10 +5768,13 @@
         <v>250.5</v>
       </c>
       <c r="F234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5086,10 +5791,13 @@
         <v>250</v>
       </c>
       <c r="F235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6">
+        <v>2863.273</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5106,10 +5814,13 @@
         <v>250.5</v>
       </c>
       <c r="F236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6">
+        <v>200</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5126,10 +5837,13 @@
         <v>250</v>
       </c>
       <c r="F237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6">
+        <v>400</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5146,10 +5860,13 @@
         <v>250</v>
       </c>
       <c r="F238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6">
+        <v>129.1338</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5166,10 +5883,13 @@
         <v>249.8</v>
       </c>
       <c r="F239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6">
+        <v>600</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5186,10 +5906,13 @@
         <v>249.8</v>
       </c>
       <c r="F240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6">
+        <v>1910.6865</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5206,10 +5929,13 @@
         <v>249.8</v>
       </c>
       <c r="F241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6">
+        <v>923.7725</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5226,10 +5952,13 @@
         <v>249.8</v>
       </c>
       <c r="F242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6">
+        <v>1831.1417</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5246,10 +5975,13 @@
         <v>249.8</v>
       </c>
       <c r="F243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6">
+        <v>303</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5266,10 +5998,13 @@
         <v>251.1</v>
       </c>
       <c r="F244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6">
+        <v>579.7829</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5286,10 +6021,13 @@
         <v>249.8</v>
       </c>
       <c r="F245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5306,10 +6044,13 @@
         <v>249.8</v>
       </c>
       <c r="F246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6">
+        <v>4000</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5326,10 +6067,13 @@
         <v>249.8</v>
       </c>
       <c r="F247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6">
+        <v>798</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5346,10 +6090,13 @@
         <v>249.9</v>
       </c>
       <c r="F248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6">
+        <v>214.5317</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5366,10 +6113,13 @@
         <v>249.3</v>
       </c>
       <c r="F249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6">
+        <v>3680.7192</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -5386,10 +6136,13 @@
         <v>250.4</v>
       </c>
       <c r="F250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6">
+        <v>807.4011</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5406,10 +6159,13 @@
         <v>249.3</v>
       </c>
       <c r="F251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6">
+        <v>443</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5426,10 +6182,13 @@
         <v>249.4</v>
       </c>
       <c r="F252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6">
+        <v>182.2</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5446,10 +6205,13 @@
         <v>249.3</v>
       </c>
       <c r="F253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6">
+        <v>968.4328</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -5466,10 +6228,13 @@
         <v>249.3</v>
       </c>
       <c r="F254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6">
+        <v>4160.3776</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5486,10 +6251,13 @@
         <v>248.5</v>
       </c>
       <c r="F255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6">
+        <v>1424.1907</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5506,10 +6274,13 @@
         <v>249.3</v>
       </c>
       <c r="F256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6">
+        <v>7078.2199733</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -5526,10 +6297,13 @@
         <v>250</v>
       </c>
       <c r="F257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6">
+        <v>1047.3141</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5546,10 +6320,13 @@
         <v>250</v>
       </c>
       <c r="F258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6">
+        <v>364.834</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5566,10 +6343,13 @@
         <v>249</v>
       </c>
       <c r="F259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6">
+        <v>4966</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -5586,10 +6366,13 @@
         <v>250</v>
       </c>
       <c r="F260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6">
+        <v>1203.0418</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5606,10 +6389,13 @@
         <v>250</v>
       </c>
       <c r="F261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6">
+        <v>273.0519</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5626,10 +6412,13 @@
         <v>249.7</v>
       </c>
       <c r="F262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6">
+        <v>341.8618</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5646,10 +6435,13 @@
         <v>250</v>
       </c>
       <c r="F263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:6">
+        <v>114.1185</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -5666,10 +6458,13 @@
         <v>250</v>
       </c>
       <c r="F264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6">
+        <v>390.9872</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5686,10 +6481,13 @@
         <v>250</v>
       </c>
       <c r="F265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6">
+        <v>526.052</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -5706,10 +6504,13 @@
         <v>250.4</v>
       </c>
       <c r="F266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6">
+        <v>4201.14399363</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -5726,10 +6527,13 @@
         <v>250</v>
       </c>
       <c r="F267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6">
+        <v>776.3459</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -5746,10 +6550,13 @@
         <v>250</v>
       </c>
       <c r="F268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6">
+        <v>159.0477</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5766,10 +6573,13 @@
         <v>250</v>
       </c>
       <c r="F269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:6">
+        <v>1000</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5786,10 +6596,13 @@
         <v>251.3</v>
       </c>
       <c r="F270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:6">
+        <v>12.5394</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5806,10 +6619,13 @@
         <v>249</v>
       </c>
       <c r="F271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:6">
+        <v>11978.5342</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5826,10 +6642,13 @@
         <v>250</v>
       </c>
       <c r="F272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:6">
+        <v>529.9</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5846,10 +6665,13 @@
         <v>250</v>
       </c>
       <c r="F273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:6">
+        <v>326</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5866,10 +6688,13 @@
         <v>250.3</v>
       </c>
       <c r="F274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6">
+        <v>408.6025</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5886,10 +6711,13 @@
         <v>250.3</v>
       </c>
       <c r="F275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6">
+        <v>2142.6427</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5906,10 +6734,13 @@
         <v>250.4</v>
       </c>
       <c r="F276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6">
+        <v>1711.5134</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -5926,10 +6757,13 @@
         <v>250.3</v>
       </c>
       <c r="F277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6">
+        <v>5736.9793</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -5946,10 +6780,13 @@
         <v>249.7</v>
       </c>
       <c r="F278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:6">
+        <v>5626.0309</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -5966,10 +6803,13 @@
         <v>249.5</v>
       </c>
       <c r="F279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -5986,10 +6826,13 @@
         <v>249.7</v>
       </c>
       <c r="F280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:6">
+        <v>100</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6006,10 +6849,13 @@
         <v>251</v>
       </c>
       <c r="F281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6">
+        <v>1913.559</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6026,10 +6872,13 @@
         <v>251.3</v>
       </c>
       <c r="F282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6">
+        <v>48.9234</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6046,10 +6895,13 @@
         <v>251.3</v>
       </c>
       <c r="F283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6">
+        <v>237.2802</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6066,10 +6918,13 @@
         <v>251.3</v>
       </c>
       <c r="F284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6">
+        <v>1031.4634</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6086,10 +6941,13 @@
         <v>251.3</v>
       </c>
       <c r="F285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6">
+        <v>135.7264</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6106,10 +6964,13 @@
         <v>251.4</v>
       </c>
       <c r="F286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6">
+        <v>772.7117</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6126,10 +6987,13 @@
         <v>251.4</v>
       </c>
       <c r="F287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6">
+        <v>570.8425</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -6146,10 +7010,13 @@
         <v>251.4</v>
       </c>
       <c r="F288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:6">
+        <v>600</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -6166,10 +7033,13 @@
         <v>251.4</v>
       </c>
       <c r="F289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:6">
+        <v>360.108</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -6186,10 +7056,13 @@
         <v>251.4</v>
       </c>
       <c r="F290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6">
+        <v>1471.7962</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -6206,10 +7079,13 @@
         <v>251.4</v>
       </c>
       <c r="F291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:6">
+        <v>286.6859</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -6226,10 +7102,13 @@
         <v>251.4</v>
       </c>
       <c r="F292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:6">
+        <v>224.8361</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -6246,10 +7125,13 @@
         <v>251.4</v>
       </c>
       <c r="F293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6">
+        <v>4264.9895</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -6266,10 +7148,13 @@
         <v>251.5</v>
       </c>
       <c r="F294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:6">
+        <v>2041.3456</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -6286,10 +7171,13 @@
         <v>251.5</v>
       </c>
       <c r="F295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:6">
+        <v>183.0549</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -6306,10 +7194,13 @@
         <v>251.4</v>
       </c>
       <c r="F296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6">
+        <v>183</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -6326,10 +7217,13 @@
         <v>251.3</v>
       </c>
       <c r="F297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:6">
+        <v>220</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -6346,10 +7240,13 @@
         <v>251.7</v>
       </c>
       <c r="F298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -6366,10 +7263,13 @@
         <v>250.8</v>
       </c>
       <c r="F299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6">
+        <v>528.9962</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -6386,10 +7286,13 @@
         <v>251.7</v>
       </c>
       <c r="F300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:6">
+        <v>3.307e-05</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -6406,10 +7309,13 @@
         <v>252</v>
       </c>
       <c r="F301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:6">
+        <v>509.059</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -6426,10 +7332,13 @@
         <v>253</v>
       </c>
       <c r="F302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6">
+        <v>2492.5187</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -6446,10 +7355,13 @@
         <v>254.3</v>
       </c>
       <c r="F303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:6">
+        <v>1203.64855446</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -6466,10 +7378,13 @@
         <v>253.6</v>
       </c>
       <c r="F304">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="305" spans="1:6">
+        <v>805.65814554</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -6486,10 +7401,13 @@
         <v>253.3</v>
       </c>
       <c r="F305">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -6506,10 +7424,13 @@
         <v>252.1</v>
       </c>
       <c r="F306">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6">
+        <v>1203.6486</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -6526,10 +7447,13 @@
         <v>253.2</v>
       </c>
       <c r="F307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:6">
+        <v>1621.5</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -6546,10 +7470,13 @@
         <v>253.2</v>
       </c>
       <c r="F308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6">
+        <v>453.2499</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -6566,10 +7493,13 @@
         <v>254.2</v>
       </c>
       <c r="F309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:6">
+        <v>2825.2</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -6586,10 +7516,13 @@
         <v>253.2</v>
       </c>
       <c r="F310">
+        <v>349.4109</v>
+      </c>
+      <c r="G310">
         <v>2</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:7">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -6606,10 +7539,13 @@
         <v>253.2</v>
       </c>
       <c r="F311">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6">
+        <v>52.0178</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -6626,10 +7562,13 @@
         <v>252.2</v>
       </c>
       <c r="F312">
+        <v>5707.7745</v>
+      </c>
+      <c r="G312">
         <v>2</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:7">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -6646,10 +7585,13 @@
         <v>252.4</v>
       </c>
       <c r="F313">
+        <v>15416.3866</v>
+      </c>
+      <c r="G313">
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:7">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -6666,10 +7608,13 @@
         <v>252.4</v>
       </c>
       <c r="F314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6">
+        <v>1498.1792</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -6686,10 +7631,13 @@
         <v>251.9</v>
       </c>
       <c r="F315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:6">
+        <v>4606.321</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -6706,10 +7654,13 @@
         <v>251.6</v>
       </c>
       <c r="F316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6">
+        <v>14883.10286326</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -6726,10 +7677,13 @@
         <v>251.6</v>
       </c>
       <c r="F317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6">
+        <v>2733.96532968</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -6746,10 +7700,13 @@
         <v>252</v>
       </c>
       <c r="F318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6">
+        <v>1947.6947</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -6766,10 +7723,13 @@
         <v>252</v>
       </c>
       <c r="F319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6">
+        <v>526.7523</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -6786,10 +7746,13 @@
         <v>252.9</v>
       </c>
       <c r="F320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6">
+        <v>3347.1407</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -6806,10 +7769,13 @@
         <v>253.9</v>
       </c>
       <c r="F321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:6">
+        <v>2941.6836</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -6826,10 +7792,13 @@
         <v>252</v>
       </c>
       <c r="F322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:6">
+        <v>15955.0777</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -6846,10 +7815,13 @@
         <v>252.3</v>
       </c>
       <c r="F323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6">
+        <v>136.872</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -6866,6 +7838,9 @@
         <v>253.6</v>
       </c>
       <c r="F324">
+        <v>5</v>
+      </c>
+      <c r="G324">
         <v>0</v>
       </c>
     </row>
